--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>Acvr1b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.41231867331886</v>
+        <v>1.468615333333333</v>
       </c>
       <c r="H2">
-        <v>1.41231867331886</v>
+        <v>4.405846</v>
       </c>
       <c r="I2">
-        <v>0.8998670429781493</v>
+        <v>0.680433441677279</v>
       </c>
       <c r="J2">
-        <v>0.8998670429781493</v>
+        <v>0.6804334416772793</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.60048675479705</v>
+        <v>3.612892</v>
       </c>
       <c r="N2">
-        <v>3.60048675479705</v>
+        <v>10.838676</v>
       </c>
       <c r="O2">
-        <v>0.1645692222354987</v>
+        <v>0.1628074729587164</v>
       </c>
       <c r="P2">
-        <v>0.1645692222354987</v>
+        <v>0.1628074729587164</v>
       </c>
       <c r="Q2">
-        <v>5.085034676837097</v>
+        <v>5.305948588877333</v>
       </c>
       <c r="R2">
-        <v>5.085034676837097</v>
+        <v>47.753537299896</v>
       </c>
       <c r="S2">
-        <v>0.1480904193782721</v>
+        <v>0.1107796491560799</v>
       </c>
       <c r="T2">
-        <v>0.1480904193782721</v>
+        <v>0.11077964915608</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.41231867331886</v>
+        <v>1.468615333333333</v>
       </c>
       <c r="H3">
-        <v>1.41231867331886</v>
+        <v>4.405846</v>
       </c>
       <c r="I3">
-        <v>0.8998670429781493</v>
+        <v>0.680433441677279</v>
       </c>
       <c r="J3">
-        <v>0.8998670429781493</v>
+        <v>0.6804334416772793</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.89176684946478</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N3">
-        <v>7.89176684946478</v>
+        <v>23.79245</v>
       </c>
       <c r="O3">
-        <v>0.3607128760437607</v>
+        <v>0.3573857784840707</v>
       </c>
       <c r="P3">
-        <v>0.3607128760437607</v>
+        <v>0.3573857784840707</v>
       </c>
       <c r="Q3">
-        <v>11.14568968697786</v>
+        <v>11.64731896252222</v>
       </c>
       <c r="R3">
-        <v>11.14568968697786</v>
+        <v>104.8258706627</v>
       </c>
       <c r="S3">
-        <v>0.3245936291296426</v>
+        <v>0.2431772352604299</v>
       </c>
       <c r="T3">
-        <v>0.3245936291296426</v>
+        <v>0.24317723526043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.41231867331886</v>
+        <v>1.468615333333333</v>
       </c>
       <c r="H4">
-        <v>1.41231867331886</v>
+        <v>4.405846</v>
       </c>
       <c r="I4">
-        <v>0.8998670429781493</v>
+        <v>0.680433441677279</v>
       </c>
       <c r="J4">
-        <v>0.8998670429781493</v>
+        <v>0.6804334416772793</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.3237095875727</v>
+        <v>4.358860666666668</v>
       </c>
       <c r="N4">
-        <v>4.3237095875727</v>
+        <v>13.076582</v>
       </c>
       <c r="O4">
-        <v>0.1976259246200494</v>
+        <v>0.1964230013294464</v>
       </c>
       <c r="P4">
-        <v>0.1976259246200494</v>
+        <v>0.1964230013294464</v>
       </c>
       <c r="Q4">
-        <v>6.106455788536711</v>
+        <v>6.401489610930224</v>
       </c>
       <c r="R4">
-        <v>6.106455788536711</v>
+        <v>57.61340649837202</v>
       </c>
       <c r="S4">
-        <v>0.1778370564036665</v>
+        <v>0.1336527788191759</v>
       </c>
       <c r="T4">
-        <v>0.1778370564036665</v>
+        <v>0.133652778819176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.41231867331886</v>
+        <v>1.468615333333333</v>
       </c>
       <c r="H5">
-        <v>1.41231867331886</v>
+        <v>4.405846</v>
       </c>
       <c r="I5">
-        <v>0.8998670429781493</v>
+        <v>0.680433441677279</v>
       </c>
       <c r="J5">
-        <v>0.8998670429781493</v>
+        <v>0.6804334416772793</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.08475295147871</v>
+        <v>5.253011333333333</v>
       </c>
       <c r="N5">
-        <v>5.08475295147871</v>
+        <v>15.759034</v>
       </c>
       <c r="O5">
-        <v>0.2324113086569806</v>
+        <v>0.2367160437133182</v>
       </c>
       <c r="P5">
-        <v>0.2324113086569806</v>
+        <v>0.2367160437133182</v>
       </c>
       <c r="Q5">
-        <v>7.181291542586569</v>
+        <v>7.714652990307111</v>
       </c>
       <c r="R5">
-        <v>7.181291542586569</v>
+        <v>69.43187691276401</v>
       </c>
       <c r="S5">
-        <v>0.2091392770758391</v>
+        <v>0.1610695123240823</v>
       </c>
       <c r="T5">
-        <v>0.2091392770758391</v>
+        <v>0.1610695123240824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.41231867331886</v>
+        <v>1.468615333333333</v>
       </c>
       <c r="H6">
-        <v>1.41231867331886</v>
+        <v>4.405846</v>
       </c>
       <c r="I6">
-        <v>0.8998670429781493</v>
+        <v>0.680433441677279</v>
       </c>
       <c r="J6">
-        <v>0.8998670429781493</v>
+        <v>0.6804334416772793</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.977534880105655</v>
+        <v>1.035612</v>
       </c>
       <c r="N6">
-        <v>0.977534880105655</v>
+        <v>3.106836</v>
       </c>
       <c r="O6">
-        <v>0.04468066844371075</v>
+        <v>0.04666770351444832</v>
       </c>
       <c r="P6">
-        <v>0.04468066844371075</v>
+        <v>0.04666770351444833</v>
       </c>
       <c r="Q6">
-        <v>1.380590764993729</v>
+        <v>1.520915662584</v>
       </c>
       <c r="R6">
-        <v>1.380590764993729</v>
+        <v>13.688240963256</v>
       </c>
       <c r="S6">
-        <v>0.0402066609907291</v>
+        <v>0.03175426611751092</v>
       </c>
       <c r="T6">
-        <v>0.0402066609907291</v>
+        <v>0.03175426611751093</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,49 +847,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.157156155590008</v>
+        <v>0.406849</v>
       </c>
       <c r="H7">
-        <v>0.157156155590008</v>
+        <v>1.220547</v>
       </c>
       <c r="I7">
-        <v>0.1001329570218506</v>
+        <v>0.1884997786892411</v>
       </c>
       <c r="J7">
-        <v>0.1001329570218506</v>
+        <v>0.1884997786892411</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.60048675479705</v>
+        <v>3.612892</v>
       </c>
       <c r="N7">
-        <v>3.60048675479705</v>
+        <v>10.838676</v>
       </c>
       <c r="O7">
-        <v>0.1645692222354987</v>
+        <v>0.1628074729587164</v>
       </c>
       <c r="P7">
-        <v>0.1645692222354987</v>
+        <v>0.1628074729587164</v>
       </c>
       <c r="Q7">
-        <v>0.5658386566366481</v>
+        <v>1.469901497308</v>
       </c>
       <c r="R7">
-        <v>0.5658386566366481</v>
+        <v>13.229113475772</v>
       </c>
       <c r="S7">
-        <v>0.01647880285722657</v>
+        <v>0.03068917262167264</v>
       </c>
       <c r="T7">
-        <v>0.01647880285722657</v>
+        <v>0.03068917262167266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.157156155590008</v>
+        <v>0.406849</v>
       </c>
       <c r="H8">
-        <v>0.157156155590008</v>
+        <v>1.220547</v>
       </c>
       <c r="I8">
-        <v>0.1001329570218506</v>
+        <v>0.1884997786892411</v>
       </c>
       <c r="J8">
-        <v>0.1001329570218506</v>
+        <v>0.1884997786892411</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.89176684946478</v>
+        <v>7.930816666666668</v>
       </c>
       <c r="N8">
-        <v>7.89176684946478</v>
+        <v>23.79245</v>
       </c>
       <c r="O8">
-        <v>0.3607128760437607</v>
+        <v>0.3573857784840707</v>
       </c>
       <c r="P8">
-        <v>0.3607128760437607</v>
+        <v>0.3573857784840707</v>
       </c>
       <c r="Q8">
-        <v>1.240239738874554</v>
+        <v>3.226644830016667</v>
       </c>
       <c r="R8">
-        <v>1.240239738874554</v>
+        <v>29.03980347015001</v>
       </c>
       <c r="S8">
-        <v>0.03611924691411801</v>
+        <v>0.06736714015092946</v>
       </c>
       <c r="T8">
-        <v>0.03611924691411801</v>
+        <v>0.06736714015092947</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.157156155590008</v>
+        <v>0.406849</v>
       </c>
       <c r="H9">
-        <v>0.157156155590008</v>
+        <v>1.220547</v>
       </c>
       <c r="I9">
-        <v>0.1001329570218506</v>
+        <v>0.1884997786892411</v>
       </c>
       <c r="J9">
-        <v>0.1001329570218506</v>
+        <v>0.1884997786892411</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.3237095875727</v>
+        <v>4.358860666666668</v>
       </c>
       <c r="N9">
-        <v>4.3237095875727</v>
+        <v>13.076582</v>
       </c>
       <c r="O9">
-        <v>0.1976259246200494</v>
+        <v>0.1964230013294464</v>
       </c>
       <c r="P9">
-        <v>0.1976259246200494</v>
+        <v>0.1964230013294464</v>
       </c>
       <c r="Q9">
-        <v>0.6794975766705845</v>
+        <v>1.773398103372667</v>
       </c>
       <c r="R9">
-        <v>0.6794975766705845</v>
+        <v>15.960582930354</v>
       </c>
       <c r="S9">
-        <v>0.01978886821638289</v>
+        <v>0.03702569228007714</v>
       </c>
       <c r="T9">
-        <v>0.01978886821638289</v>
+        <v>0.03702569228007715</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -1033,49 +1033,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.157156155590008</v>
+        <v>0.406849</v>
       </c>
       <c r="H10">
-        <v>0.157156155590008</v>
+        <v>1.220547</v>
       </c>
       <c r="I10">
-        <v>0.1001329570218506</v>
+        <v>0.1884997786892411</v>
       </c>
       <c r="J10">
-        <v>0.1001329570218506</v>
+        <v>0.1884997786892411</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.08475295147871</v>
+        <v>5.253011333333333</v>
       </c>
       <c r="N10">
-        <v>5.08475295147871</v>
+        <v>15.759034</v>
       </c>
       <c r="O10">
-        <v>0.2324113086569806</v>
+        <v>0.2367160437133182</v>
       </c>
       <c r="P10">
-        <v>0.2324113086569806</v>
+        <v>0.2367160437133182</v>
       </c>
       <c r="Q10">
-        <v>0.7991002259793406</v>
+        <v>2.137182407955333</v>
       </c>
       <c r="R10">
-        <v>0.7991002259793406</v>
+        <v>19.234641671598</v>
       </c>
       <c r="S10">
-        <v>0.02327203158114149</v>
+        <v>0.0446209218521532</v>
       </c>
       <c r="T10">
-        <v>0.02327203158114149</v>
+        <v>0.0446209218521532</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.406849</v>
+      </c>
+      <c r="H11">
+        <v>1.220547</v>
+      </c>
+      <c r="I11">
+        <v>0.1884997786892411</v>
+      </c>
+      <c r="J11">
+        <v>0.1884997786892411</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.035612</v>
+      </c>
+      <c r="N11">
+        <v>3.106836</v>
+      </c>
+      <c r="O11">
+        <v>0.04666770351444832</v>
+      </c>
+      <c r="P11">
+        <v>0.04666770351444833</v>
+      </c>
+      <c r="Q11">
+        <v>0.421337706588</v>
+      </c>
+      <c r="R11">
+        <v>3.792039359292</v>
+      </c>
+      <c r="S11">
+        <v>0.008796851784408626</v>
+      </c>
+      <c r="T11">
+        <v>0.008796851784408628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1211913333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.363574</v>
+      </c>
+      <c r="I12">
+        <v>0.0561499217458747</v>
+      </c>
+      <c r="J12">
+        <v>0.05614992174587471</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.612892</v>
+      </c>
+      <c r="N12">
+        <v>10.838676</v>
+      </c>
+      <c r="O12">
+        <v>0.1628074729587164</v>
+      </c>
+      <c r="P12">
+        <v>0.1628074729587164</v>
+      </c>
+      <c r="Q12">
+        <v>0.4378511986693333</v>
+      </c>
+      <c r="R12">
+        <v>3.940660788024</v>
+      </c>
+      <c r="S12">
+        <v>0.009141626866275539</v>
+      </c>
+      <c r="T12">
+        <v>0.009141626866275543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1211913333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.363574</v>
+      </c>
+      <c r="I13">
+        <v>0.0561499217458747</v>
+      </c>
+      <c r="J13">
+        <v>0.05614992174587471</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.930816666666668</v>
+      </c>
+      <c r="N13">
+        <v>23.79245</v>
+      </c>
+      <c r="O13">
+        <v>0.3573857784840707</v>
+      </c>
+      <c r="P13">
+        <v>0.3573857784840707</v>
+      </c>
+      <c r="Q13">
+        <v>0.9611462462555557</v>
+      </c>
+      <c r="R13">
+        <v>8.6503162163</v>
+      </c>
+      <c r="S13">
+        <v>0.02006718349496908</v>
+      </c>
+      <c r="T13">
+        <v>0.02006718349496909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1211913333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.363574</v>
+      </c>
+      <c r="I14">
+        <v>0.0561499217458747</v>
+      </c>
+      <c r="J14">
+        <v>0.05614992174587471</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.358860666666668</v>
+      </c>
+      <c r="N14">
+        <v>13.076582</v>
+      </c>
+      <c r="O14">
+        <v>0.1964230013294464</v>
+      </c>
+      <c r="P14">
+        <v>0.1964230013294464</v>
+      </c>
+      <c r="Q14">
+        <v>0.5282561360075556</v>
+      </c>
+      <c r="R14">
+        <v>4.754305224068001</v>
+      </c>
+      <c r="S14">
+        <v>0.01102913615373826</v>
+      </c>
+      <c r="T14">
+        <v>0.01102913615373826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1211913333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.363574</v>
+      </c>
+      <c r="I15">
+        <v>0.0561499217458747</v>
+      </c>
+      <c r="J15">
+        <v>0.05614992174587471</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.253011333333333</v>
+      </c>
+      <c r="N15">
+        <v>15.759034</v>
+      </c>
+      <c r="O15">
+        <v>0.2367160437133182</v>
+      </c>
+      <c r="P15">
+        <v>0.2367160437133182</v>
+      </c>
+      <c r="Q15">
+        <v>0.6366194475017778</v>
+      </c>
+      <c r="R15">
+        <v>5.729575027516</v>
+      </c>
+      <c r="S15">
+        <v>0.01329158733049587</v>
+      </c>
+      <c r="T15">
+        <v>0.01329158733049588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1211913333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.363574</v>
+      </c>
+      <c r="I16">
+        <v>0.0561499217458747</v>
+      </c>
+      <c r="J16">
+        <v>0.05614992174587471</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.035612</v>
+      </c>
+      <c r="N16">
+        <v>3.106836</v>
+      </c>
+      <c r="O16">
+        <v>0.04666770351444832</v>
+      </c>
+      <c r="P16">
+        <v>0.04666770351444833</v>
+      </c>
+      <c r="Q16">
+        <v>0.125507199096</v>
+      </c>
+      <c r="R16">
+        <v>1.129564791864</v>
+      </c>
+      <c r="S16">
+        <v>0.002620387900395955</v>
+      </c>
+      <c r="T16">
+        <v>0.002620387900395956</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.161697</v>
+      </c>
+      <c r="H17">
+        <v>0.485091</v>
+      </c>
+      <c r="I17">
+        <v>0.07491685788760501</v>
+      </c>
+      <c r="J17">
+        <v>0.07491685788760503</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.612892</v>
+      </c>
+      <c r="N17">
+        <v>10.838676</v>
+      </c>
+      <c r="O17">
+        <v>0.1628074729587164</v>
+      </c>
+      <c r="P17">
+        <v>0.1628074729587164</v>
+      </c>
+      <c r="Q17">
+        <v>0.584193797724</v>
+      </c>
+      <c r="R17">
+        <v>5.257744179516</v>
+      </c>
+      <c r="S17">
+        <v>0.01219702431468825</v>
+      </c>
+      <c r="T17">
+        <v>0.01219702431468826</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.157156155590008</v>
-      </c>
-      <c r="H11">
-        <v>0.157156155590008</v>
-      </c>
-      <c r="I11">
-        <v>0.1001329570218506</v>
-      </c>
-      <c r="J11">
-        <v>0.1001329570218506</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.977534880105655</v>
-      </c>
-      <c r="N11">
-        <v>0.977534880105655</v>
-      </c>
-      <c r="O11">
-        <v>0.04468066844371075</v>
-      </c>
-      <c r="P11">
-        <v>0.04468066844371075</v>
-      </c>
-      <c r="Q11">
-        <v>0.1536256237125442</v>
-      </c>
-      <c r="R11">
-        <v>0.1536256237125442</v>
-      </c>
-      <c r="S11">
-        <v>0.004474007452981645</v>
-      </c>
-      <c r="T11">
-        <v>0.004474007452981645</v>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.161697</v>
+      </c>
+      <c r="H18">
+        <v>0.485091</v>
+      </c>
+      <c r="I18">
+        <v>0.07491685788760501</v>
+      </c>
+      <c r="J18">
+        <v>0.07491685788760503</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.930816666666668</v>
+      </c>
+      <c r="N18">
+        <v>23.79245</v>
+      </c>
+      <c r="O18">
+        <v>0.3573857784840707</v>
+      </c>
+      <c r="P18">
+        <v>0.3573857784840707</v>
+      </c>
+      <c r="Q18">
+        <v>1.28238926255</v>
+      </c>
+      <c r="R18">
+        <v>11.54150336295</v>
+      </c>
+      <c r="S18">
+        <v>0.0267742195777422</v>
+      </c>
+      <c r="T18">
+        <v>0.02677421957774222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.161697</v>
+      </c>
+      <c r="H19">
+        <v>0.485091</v>
+      </c>
+      <c r="I19">
+        <v>0.07491685788760501</v>
+      </c>
+      <c r="J19">
+        <v>0.07491685788760503</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.358860666666668</v>
+      </c>
+      <c r="N19">
+        <v>13.076582</v>
+      </c>
+      <c r="O19">
+        <v>0.1964230013294464</v>
+      </c>
+      <c r="P19">
+        <v>0.1964230013294464</v>
+      </c>
+      <c r="Q19">
+        <v>0.7048146932180002</v>
+      </c>
+      <c r="R19">
+        <v>6.343332238962001</v>
+      </c>
+      <c r="S19">
+        <v>0.01471539407645498</v>
+      </c>
+      <c r="T19">
+        <v>0.01471539407645499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.161697</v>
+      </c>
+      <c r="H20">
+        <v>0.485091</v>
+      </c>
+      <c r="I20">
+        <v>0.07491685788760501</v>
+      </c>
+      <c r="J20">
+        <v>0.07491685788760503</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>5.253011333333333</v>
+      </c>
+      <c r="N20">
+        <v>15.759034</v>
+      </c>
+      <c r="O20">
+        <v>0.2367160437133182</v>
+      </c>
+      <c r="P20">
+        <v>0.2367160437133182</v>
+      </c>
+      <c r="Q20">
+        <v>0.8493961735660001</v>
+      </c>
+      <c r="R20">
+        <v>7.644565562094001</v>
+      </c>
+      <c r="S20">
+        <v>0.01773402220658675</v>
+      </c>
+      <c r="T20">
+        <v>0.01773402220658676</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.161697</v>
+      </c>
+      <c r="H21">
+        <v>0.485091</v>
+      </c>
+      <c r="I21">
+        <v>0.07491685788760501</v>
+      </c>
+      <c r="J21">
+        <v>0.07491685788760503</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.035612</v>
+      </c>
+      <c r="N21">
+        <v>3.106836</v>
+      </c>
+      <c r="O21">
+        <v>0.04666770351444832</v>
+      </c>
+      <c r="P21">
+        <v>0.04666770351444833</v>
+      </c>
+      <c r="Q21">
+        <v>0.167455353564</v>
+      </c>
+      <c r="R21">
+        <v>1.507098182076</v>
+      </c>
+      <c r="S21">
+        <v>0.00349619771213281</v>
+      </c>
+      <c r="T21">
+        <v>0.003496197712132811</v>
       </c>
     </row>
   </sheetData>
